--- a/Antilles.xlsx
+++ b/Antilles.xlsx
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00969696"/>
+        <bgColor rgb="00969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +363,4694 @@
     <col customWidth="1" max="5" min="5" width="20"/>
     <col customWidth="1" max="6" min="6" width="50"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>902</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CGMU510926.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Direct + Poly orange  + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>901</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GESU959074.6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Direct + Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>36</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AMCU927391.9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 336 PLANT en 48 + 250 PLAT en 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>101</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AMCU927789.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AMCU929009.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>87</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AMCU929442.3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>131</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AMCU929744.3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>71</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>APRU570641.8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>APRU572505.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>79</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>APRU572758.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>APRU573093.9</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contremarque spé + SCAFRUIT 240 GF en 48 + Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>163</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>APRU573622.2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>74</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>APRU575204.9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>APRU575227.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>APRU576682.3</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contremarque spé </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>APRU577719.7</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCAFRUIT 96 GF en 48 + Poly orange  + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>32</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>APRU577805.9</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>APRU578115.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>46</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>APRU578123.7</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>135</v>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>APRU578936.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>APRU580330.0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 700 PLAT en 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>26</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>APRU580833.8</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>103</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>APRU581368.0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>15</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>APRU583335.1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>APRU583686.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>133</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>APRU584288.3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 528 PLANT en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>157</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>APRU584911.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>APRU610554.0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>APRU613580.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>APRU613768.2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>97</v>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>APRU613907.3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCAFRUIT 288 GF en 48 + Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>56</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>APRU613921.6</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>61</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>APRU613982.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>BMOU962533.0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>161</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>BMOU964229.8</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>95</v>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>BMOU964573.8</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCAFRUIT 1104 PLANT en 48 + Appel SQ  + Poly complet  + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>BMOU973891.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>154</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>BMOU977466.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>BMOU978375.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>53</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>BMOU980471.6</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contremarque spé </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>BMOU980505.5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Contremarque spé + SCAFRUIT 192 GF en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>149</v>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>CAIU544273.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>125</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>CAIU555506.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>109</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>CAIU558100.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>59</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>CAIU558916.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>121</v>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>CGMU484058.4</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>30</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>CGMU492929.1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>CGMU494418.8</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contremarque spé + SCAFRUIT 288 GF en 48 + Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>82</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>CGMU494504.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>48</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>CGMU494603.0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>57</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>CGMU494751.0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>21</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CGMU495343.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>19</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CGMU495603.9</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 288 PLANT en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>18</v>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>CGMU495857.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>113</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>CGMU499303.2</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>94</v>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>CGMU507689.2</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ  + Nexy </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>112</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>CGMU507787.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>116</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>CGMU509148.0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>52</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>CGMU509497.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>68</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>CGMU509584.5</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 288 PLANT en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>153</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>CGMU509746.8</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCAFRUIT 768 PLANT en 48 + Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>35</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>CGMU510207.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>43</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>CGMU510353.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>67</v>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>CGMU511112.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>105</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>CGMU512574.4</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet  + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>CGMU513083.8</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>CGMU513176.8</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCAFRUIT 240 PLANT en 48 + Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>37</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>CGMU513290.7</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>108</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>CGMU514147.3</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>155</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>CGMU514621.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>25</v>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>CGMU518548.7</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>65</v>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>CGMU519067.3</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Contremarque spé + SCAFRUIT 672 PLANT en 48 + 48 GF en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>147</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>CGMU519559.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>70</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>CGMU519838.1</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>72</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>CGMU522087.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>138</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>CGMU522507.0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange  + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>156</v>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>CGMU522731.9</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contremarque spé </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>CGMU524124.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>27</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>CGMU526620.7</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contremarque spé  + Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>69</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>CGMU527681.7</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ  + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>104</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>CGMU529995.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>31</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>CGMU530011.1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>55</v>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>CGMU530206.9</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>127</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>CGMU530808.8</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>134</v>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>CGMU531868.2</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 1008 PLANT en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>47</v>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>CGMU532347.8</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>110</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>CGMU533984.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>75</v>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>CGMU534580.0</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 144 PLANT en 48 + 432 GF en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>142</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>CGMU535093.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>114</v>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>CGMU535947.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>34</v>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>CGMU536713.6</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy  + Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>123</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>CGMU650047.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>128</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>CGMU651661.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>49</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>CGMU653295.5</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contremarque spé </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>160</v>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>CGMU654233.6</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>106</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>CGMU929127.6</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>58</v>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>CGMU933068.6</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>152</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>CGMU934139.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>CGMU934395.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>85</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>CGMU937142.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>115</v>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>CGMU939211.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>44</v>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>CRLU161034.9</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contremarque spé </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>140</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>CRLU161244.4</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>102</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>CRLU161474.5</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>118</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>CRLU161628.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>24</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>CRLU183817.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>60</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>CSFU330726.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>129</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>CXRU131961.5</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>83</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>CXRU150896.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>137</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>CXRU151467.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>73</v>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>CXRU151550.0</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>29</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>CXRU154018.5</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>136</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>CXRU155671.0</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>64</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>GESU947024.7</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange  + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>144</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>GESU952443.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>GESU952785.1</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>50</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>GESU952851.8</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contremarque spé </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>111</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>GESU959045.3</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCAFRUIT 288 PLANT en 48 + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>28</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>GESU960444.9</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange  + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1" t="inlineStr">
+        <is>
+          <t>SEGU921603.1</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1" t="inlineStr">
+        <is>
+          <t>SEGU953556.9</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>100</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>SEGU954102.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>45</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>SEGU964930.3</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>158</v>
+      </c>
+      <c r="E125" s="1" t="inlineStr">
+        <is>
+          <t>SZLU913508.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>117</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>SZLU913537.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>93</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SZLU921019.2</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>122</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>SZLU963182.2</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>89</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SZLU963231.0</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>162</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>TCLU100755.9</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>132</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>TCLU105030.2</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 96 PLANT en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>14</v>
+      </c>
+      <c r="E132" s="1" t="inlineStr">
+        <is>
+          <t>TCLU106099.6</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>17</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>TCLU107459.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>62</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>TCLU109883.6</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange  + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>120</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>TCLU113726.0</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ  + Poly complet </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>16</v>
+      </c>
+      <c r="E136" s="1" t="inlineStr">
+        <is>
+          <t>TCLU119333.0</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 240 GF en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>148</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>TCLU131817.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>92</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>TCLU138633.9</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>90</v>
+      </c>
+      <c r="E139" s="1" t="inlineStr">
+        <is>
+          <t>TEMU904507.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>78</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>TEMU911504.8</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>143</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>TEMU913240.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>81</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>TEMU921436.0</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange  + Prio </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>38</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>TEMU927159.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>22</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>TEMU942240.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>51</v>
+      </c>
+      <c r="E145" s="1" t="inlineStr">
+        <is>
+          <t>TGHU994278.9</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>146</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>TGHU994414.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>86</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>TLLU103213.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>91</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>TLLU104337.0</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy  + Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>150</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>TLLU104828.4</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>139</v>
+      </c>
+      <c r="E150" s="1" t="inlineStr">
+        <is>
+          <t>TLLU105567.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>124</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>TLLU106030.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>41</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>TLLU106946.1</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contremarque spé </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>141</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>TRIU849076.1</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>39</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>TRIU867490.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>159</v>
+      </c>
+      <c r="E155" s="1" t="inlineStr">
+        <is>
+          <t>TRIU897948.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>76</v>
+      </c>
+      <c r="E156" s="1" t="inlineStr">
+        <is>
+          <t>TRLU174442.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>107</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>TTNU805640.5</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>119</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>TTNU809728.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>130</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>TTNU826601.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>88</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>TTNU829200.0</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>84</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>TTNU830839.0</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>151</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>TTNU862807.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>8</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>TTNU863680.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>126</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>TTNU868839.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>80</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>TTNU895538.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>145</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>TTNU897782.1</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>164</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>TTNU897830.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>515</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>AMCU927961.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>504</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>APRU610130.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>531</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>APRU610594.1</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>511</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>APRU610728.7</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 768 GF en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>508</v>
+      </c>
+      <c r="E172" s="1" t="inlineStr">
+        <is>
+          <t>CAIU550833.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>502</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>CAIU551255.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>506</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>CAIU555789.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>534</v>
+      </c>
+      <c r="E175" s="1" t="inlineStr">
+        <is>
+          <t>CAIU558760.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>539</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>CGMU507118.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>536</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>CGMU509963.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>510</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>CGMU514833.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>513</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>CGMU515595.0</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>532</v>
+      </c>
+      <c r="E180" s="1" t="inlineStr">
+        <is>
+          <t>CGMU517627.4</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCAFRUIT 48 GF en 48 + Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>519</v>
+      </c>
+      <c r="E181" s="1" t="inlineStr">
+        <is>
+          <t>CGMU518569.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>525</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>CGMU528291.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>533</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>CGMU530023.5</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 48 GF en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>521</v>
+      </c>
+      <c r="E184" s="1" t="inlineStr">
+        <is>
+          <t>CGMU531370.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>537</v>
+      </c>
+      <c r="E185" s="1" t="inlineStr">
+        <is>
+          <t>CGMU533176.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>529</v>
+      </c>
+      <c r="E186" s="1" t="inlineStr">
+        <is>
+          <t>CGMU535672.2</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 384 GF en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>527</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>CGMU652538.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>501</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>CGMU654978.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>522</v>
+      </c>
+      <c r="E189" s="1" t="inlineStr">
+        <is>
+          <t>CGMU929617.5</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>505</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>CGMU937761.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>507</v>
+      </c>
+      <c r="E191" s="1" t="inlineStr">
+        <is>
+          <t>CXRU100227.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>520</v>
+      </c>
+      <c r="E192" s="1" t="inlineStr">
+        <is>
+          <t>CXRU112399.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>509</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>CXRU128531.0</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>528</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>SEGU907768.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>524</v>
+      </c>
+      <c r="E195" s="1" t="inlineStr">
+        <is>
+          <t>SEGU913350.7</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>516</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>SEGU940564.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>518</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>SEGU954025.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>538</v>
+      </c>
+      <c r="E198" s="1" t="inlineStr">
+        <is>
+          <t>SEGU954405.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>503</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>TCLU103180.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>540</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>TCLU115829.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>541</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>TCLU130573.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>535</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>TCLU134159.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>517</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>TEMU921600.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>514</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>TEMU942329.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>512</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>TEMU943143.1</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 720 PLANT en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>530</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>TRIU867701.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>542</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>TRIU897841.6</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>SCAFRUIT 1008 PLANT en 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>526</v>
+      </c>
+      <c r="E208" s="1" t="inlineStr">
+        <is>
+          <t>TTNU826192.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>523</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>TTNU895473.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Antilles.xlsx
+++ b/Antilles.xlsx
@@ -381,7 +381,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Direct + Poly orange  + Prio </t>
+          <t>Direct</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Direct + Poly complet </t>
+          <t>Direct</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SCAFRUIT 336 PLANT en 48 + 250 PLAT en 50</t>
+          <t xml:space="preserve">SCAFRUIT 336 PLANT en 48 + 250 PLAT en 50 + Poly orange  + Prio </t>
         </is>
       </c>
     </row>
@@ -451,7 +451,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Poly complet </t>
         </is>
       </c>
     </row>
@@ -474,11 +474,6 @@
           <t>AMCU929009.5</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nexy </t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -501,7 +496,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nexy </t>
+          <t xml:space="preserve">Poly orange </t>
         </is>
       </c>
     </row>
@@ -521,7 +516,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly complet </t>
+          <t xml:space="preserve">Nexy </t>
         </is>
       </c>
     </row>
@@ -541,7 +536,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appel SQ </t>
+          <t xml:space="preserve">Nexy </t>
         </is>
       </c>
     </row>
@@ -564,6 +559,11 @@
           <t>APRU572505.9</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
@@ -584,6 +584,11 @@
           <t>APRU572758.1</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -611,7 +616,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contremarque spé + SCAFRUIT 240 GF en 48 + Poly orange </t>
+          <t>Contremarque spé + SCAFRUIT 240 GF en 48</t>
         </is>
       </c>
     </row>
@@ -629,11 +634,6 @@
           <t>APRU573622.2</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ </t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly complet </t>
+          <t xml:space="preserve">Poly orange </t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Appel SQ </t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contremarque spé </t>
+          <t xml:space="preserve">Contremarque spé  + Poly complet </t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAFRUIT 96 GF en 48 + Poly orange  + Prio </t>
+          <t xml:space="preserve">SCAFRUIT 96 GF en 48 + Poly orange </t>
         </is>
       </c>
     </row>
@@ -759,11 +759,6 @@
           <t>APRU577805.9</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prio </t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
@@ -784,6 +779,11 @@
           <t>APRU578115.5</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange  + Prio </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Prio </t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SCAFRUIT 700 PLAT en 50</t>
+          <t xml:space="preserve">SCAFRUIT 700 PLAT en 50 + Poly orange </t>
         </is>
       </c>
     </row>
@@ -874,11 +874,6 @@
           <t>APRU580833.8</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prio </t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -899,11 +894,6 @@
           <t>APRU581368.0</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -926,7 +916,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Prio </t>
         </is>
       </c>
     </row>
@@ -949,6 +939,11 @@
           <t>APRU583686.0</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
@@ -971,7 +966,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SCAFRUIT 528 PLANT en 48</t>
+          <t xml:space="preserve">SCAFRUIT 528 PLANT en 48 + Poly orange </t>
         </is>
       </c>
     </row>
@@ -1019,11 +1014,6 @@
           <t>APRU610554.0</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prio </t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1071,7 +1061,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly complet </t>
+          <t xml:space="preserve">Prio </t>
         </is>
       </c>
     </row>
@@ -1101,7 +1091,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAFRUIT 288 GF en 48 + Poly complet </t>
+          <t>SCAFRUIT 288 GF en 48</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1116,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Poly complet </t>
         </is>
       </c>
     </row>
@@ -1144,6 +1134,11 @@
           <t>APRU613982.8</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
@@ -1184,11 +1179,6 @@
           <t>BMOU964229.8</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="C37" t="inlineStr">
@@ -1206,7 +1196,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAFRUIT 1104 PLANT en 48 + Appel SQ  + Poly complet  + Prio </t>
+          <t xml:space="preserve">SCAFRUIT 1104 PLANT en 48 + Poly orange </t>
         </is>
       </c>
     </row>
@@ -1229,6 +1219,11 @@
           <t>BMOU973891.2</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
@@ -1249,6 +1244,11 @@
           <t>BMOU977466.9</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ  + Poly complet  + Prio </t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
@@ -1439,11 +1439,6 @@
           <t>CGMU484058.4</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="C48" t="inlineStr">
@@ -1459,11 +1454,6 @@
           <t>CGMU492929.1</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1491,7 +1481,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contremarque spé + SCAFRUIT 288 GF en 48 + Appel SQ </t>
+          <t xml:space="preserve">Contremarque spé + SCAFRUIT 288 GF en 48 + Poly orange </t>
         </is>
       </c>
     </row>
@@ -1514,6 +1504,11 @@
           <t>CGMU494504.0</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1541,7 +1536,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prio </t>
+          <t xml:space="preserve">Appel SQ </t>
         </is>
       </c>
     </row>
@@ -1559,11 +1554,6 @@
           <t>CGMU494751.0</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly complet </t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
@@ -1584,6 +1574,11 @@
           <t>CGMU495343.0</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prio </t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
@@ -1606,7 +1601,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SCAFRUIT 288 PLANT en 48</t>
+          <t xml:space="preserve">SCAFRUIT 288 PLANT en 48 + Poly complet </t>
         </is>
       </c>
     </row>
@@ -1644,11 +1639,6 @@
           <t>CGMU499303.2</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
@@ -1669,11 +1659,6 @@
           <t>CGMU507689.2</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ  + Nexy </t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="C58" t="inlineStr">
@@ -1689,6 +1674,11 @@
           <t>CGMU507787.8</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1711,7 +1701,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Appel SQ  + Nexy </t>
         </is>
       </c>
     </row>
@@ -1756,7 +1746,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SCAFRUIT 288 PLANT en 48</t>
+          <t xml:space="preserve">SCAFRUIT 288 PLANT en 48 + Poly orange </t>
         </is>
       </c>
     </row>
@@ -1786,7 +1776,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAFRUIT 768 PLANT en 48 + Poly orange </t>
+          <t>SCAFRUIT 768 PLANT en 48</t>
         </is>
       </c>
     </row>
@@ -1829,6 +1819,11 @@
           <t>CGMU510353.4</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="C65" t="inlineStr">
@@ -1869,11 +1864,6 @@
           <t>CGMU512574.4</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly complet  + Prio </t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
@@ -1894,11 +1884,6 @@
           <t>CGMU513083.8</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
@@ -1921,7 +1906,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAFRUIT 240 PLANT en 48 + Appel SQ </t>
+          <t xml:space="preserve">SCAFRUIT 240 PLANT en 48 + Poly complet  + Prio </t>
         </is>
       </c>
     </row>
@@ -1971,7 +1956,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Appel SQ </t>
         </is>
       </c>
     </row>
@@ -1989,6 +1974,11 @@
           <t>CGMU514621.7</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="C72" t="inlineStr">
@@ -2059,6 +2049,11 @@
           <t>CGMU519559.3</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
@@ -2079,11 +2074,6 @@
           <t>CGMU519838.1</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nexy </t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
@@ -2131,7 +2121,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange  + Prio </t>
+          <t xml:space="preserve">Nexy </t>
         </is>
       </c>
     </row>
@@ -2184,6 +2174,11 @@
           <t>CGMU524124.0</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange  + Prio </t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2211,7 +2206,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contremarque spé  + Appel SQ </t>
+          <t xml:space="preserve">Contremarque spé </t>
         </is>
       </c>
     </row>
@@ -2234,11 +2229,6 @@
           <t>CGMU527681.7</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ  + Prio </t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2264,6 +2254,11 @@
           <t>CGMU529995.7</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
@@ -2286,7 +2281,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appel SQ </t>
+          <t xml:space="preserve">Appel SQ  + Prio </t>
         </is>
       </c>
     </row>
@@ -2304,11 +2299,6 @@
           <t>CGMU530206.9</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly complet </t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2331,7 +2321,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Appel SQ </t>
         </is>
       </c>
     </row>
@@ -2356,7 +2346,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>SCAFRUIT 1008 PLANT en 48</t>
+          <t xml:space="preserve">SCAFRUIT 1008 PLANT en 48 + Poly complet </t>
         </is>
       </c>
     </row>
@@ -2416,7 +2406,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>SCAFRUIT 144 PLANT en 48 + 432 GF en 48</t>
+          <t xml:space="preserve">SCAFRUIT 144 PLANT en 48 + 432 GF en 48 + Poly orange </t>
         </is>
       </c>
     </row>
@@ -2479,11 +2469,6 @@
           <t>CGMU536713.6</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nexy  + Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
@@ -2529,6 +2514,11 @@
           <t>CGMU651661.4</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy  + Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2574,11 +2564,6 @@
           <t>CGMU654233.6</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly complet </t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2599,11 +2584,6 @@
           <t>CGMU929127.6</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
@@ -2626,7 +2606,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Poly complet </t>
         </is>
       </c>
     </row>
@@ -2649,6 +2629,11 @@
           <t>CGMU934139.8</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="C100" t="inlineStr">
@@ -2664,6 +2649,11 @@
           <t>CGMU934395.5</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2764,11 +2754,6 @@
           <t>CRLU161244.4</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly complet </t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
@@ -2789,11 +2774,6 @@
           <t>CRLU161474.5</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ </t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
@@ -2814,6 +2794,11 @@
           <t>CRLU161628.6</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
@@ -2834,6 +2819,11 @@
           <t>CRLU183817.5</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
@@ -2869,11 +2859,6 @@
           <t>CXRU131961.5</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="C110" t="inlineStr">
@@ -2914,6 +2899,11 @@
           <t>CXRU151467.4</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
@@ -2934,11 +2924,6 @@
           <t>CXRU151550.0</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ </t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="C113" t="inlineStr">
@@ -2954,11 +2939,6 @@
           <t>CXRU154018.5</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2986,7 +2966,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly complet </t>
+          <t xml:space="preserve">Appel SQ </t>
         </is>
       </c>
     </row>
@@ -3011,7 +2991,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange  + Prio </t>
+          <t xml:space="preserve">Poly orange </t>
         </is>
       </c>
     </row>
@@ -3034,6 +3014,11 @@
           <t>GESU952443.0</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly complet </t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
@@ -3056,7 +3041,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly complet </t>
+          <t xml:space="preserve">Poly orange  + Prio </t>
         </is>
       </c>
     </row>
@@ -3111,7 +3096,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAFRUIT 288 PLANT en 48 + Prio </t>
+          <t xml:space="preserve">SCAFRUIT 288 PLANT en 48 + Poly complet </t>
         </is>
       </c>
     </row>
@@ -3139,11 +3124,6 @@
           <t>GESU960444.9</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange  + Prio </t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="C121" t="inlineStr">
@@ -3161,7 +3141,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Prio </t>
         </is>
       </c>
     </row>
@@ -3181,7 +3161,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange </t>
+          <t xml:space="preserve">Poly orange  + Prio </t>
         </is>
       </c>
     </row>
@@ -3204,6 +3184,11 @@
           <t>SEGU954102.6</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="C124" t="inlineStr">
@@ -3269,6 +3254,11 @@
           <t>SZLU913537.6</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="B127" t="inlineStr">
@@ -3289,11 +3279,6 @@
           <t>SZLU921019.2</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ </t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="C128" t="inlineStr">
@@ -3309,11 +3294,6 @@
           <t>SZLU963182.2</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="B129" t="inlineStr">
@@ -3336,7 +3316,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly complet </t>
+          <t xml:space="preserve">Appel SQ </t>
         </is>
       </c>
     </row>
@@ -3361,7 +3341,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly complet </t>
+          <t xml:space="preserve">Poly orange </t>
         </is>
       </c>
     </row>
@@ -3386,7 +3366,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>SCAFRUIT 96 PLANT en 48</t>
+          <t xml:space="preserve">SCAFRUIT 96 PLANT en 48 + Poly complet </t>
         </is>
       </c>
     </row>
@@ -3446,7 +3426,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange  + Prio </t>
+          <t xml:space="preserve">Poly complet </t>
         </is>
       </c>
     </row>
@@ -3464,11 +3444,6 @@
           <t>TCLU113726.0</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ  + Poly complet </t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="C136" t="inlineStr">
@@ -3486,7 +3461,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>SCAFRUIT 240 GF en 48</t>
+          <t xml:space="preserve">SCAFRUIT 240 GF en 48 + Poly orange  + Prio </t>
         </is>
       </c>
     </row>
@@ -3509,6 +3484,11 @@
           <t>TCLU131817.0</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ  + Poly complet </t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="B138" t="inlineStr">
@@ -3529,11 +3509,6 @@
           <t>TCLU138633.9</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nexy </t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
@@ -3571,7 +3546,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appel SQ </t>
+          <t xml:space="preserve">Nexy </t>
         </is>
       </c>
     </row>
@@ -3616,7 +3591,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poly orange  + Prio </t>
+          <t xml:space="preserve">Appel SQ </t>
         </is>
       </c>
     </row>
@@ -3659,6 +3634,11 @@
           <t>TEMU942240.3</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange  + Prio </t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3679,11 +3659,6 @@
           <t>TGHU994278.9</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nexy </t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="B146" t="inlineStr">
@@ -3719,6 +3694,11 @@
           <t>TLLU103213.8</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy </t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="B148" t="inlineStr">
@@ -3739,11 +3719,6 @@
           <t>TLLU104337.0</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nexy  + Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
@@ -3764,11 +3739,6 @@
           <t>TLLU104828.4</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nexy </t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3794,6 +3764,11 @@
           <t>TLLU105567.9</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy  + Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="C151" t="inlineStr">
@@ -3809,6 +3784,11 @@
           <t>TLLU106030.9</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy </t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3864,11 +3844,6 @@
           <t>TRIU849076.1</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3909,6 +3884,11 @@
           <t>TRIU897948.0</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="B156" t="inlineStr">
@@ -3954,11 +3934,6 @@
           <t>TTNU805640.5</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nexy </t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="B158" t="inlineStr">
@@ -3994,6 +3969,11 @@
           <t>TTNU826601.6</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nexy </t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="C160" t="inlineStr">
@@ -4009,11 +3989,6 @@
           <t>TTNU829200.0</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="B161" t="inlineStr">
@@ -4034,11 +4009,6 @@
           <t>TTNU830839.0</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poly orange </t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="C162" t="inlineStr">
@@ -4054,6 +4024,11 @@
           <t>TTNU862807.5</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="B163" t="inlineStr">
@@ -4074,6 +4049,11 @@
           <t>TTNU863680.4</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poly orange </t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4144,11 +4124,6 @@
           <t>TTNU897782.1</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ </t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="C167" t="inlineStr">
@@ -4189,6 +4164,11 @@
           <t>AMCU927961.9</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="B169" t="inlineStr">
@@ -4224,11 +4204,6 @@
           <t>APRU610594.1</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ </t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="C171" t="inlineStr">
@@ -4264,6 +4239,11 @@
           <t>CAIU550833.6</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4409,11 +4389,6 @@
           <t>CGMU515595.0</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ </t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="C180" t="inlineStr">
@@ -4431,7 +4406,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAFRUIT 48 GF en 48 + Appel SQ </t>
+          <t>SCAFRUIT 48 GF en 48</t>
         </is>
       </c>
     </row>
@@ -4454,6 +4429,11 @@
           <t>CGMU518569.8</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4479,6 +4459,11 @@
           <t>CGMU528291.2</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="C183" t="inlineStr">
@@ -4639,11 +4624,6 @@
           <t>CGMU929617.5</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ </t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="C190" t="inlineStr">
@@ -4674,6 +4654,11 @@
           <t>CXRU100227.7</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4709,11 +4694,6 @@
           <t>CXRU128531.0</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appel SQ </t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4807,6 +4787,11 @@
       <c r="E197" t="inlineStr">
         <is>
           <t>SEGU954025.1</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appel SQ </t>
         </is>
       </c>
     </row>
